--- a/数据整理/stocks/A股/上证主板/600011-华能国际.xlsx
+++ b/数据整理/stocks/A股/上证主板/600011-华能国际.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,25 +502,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001309</t>
+          <t>169108</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>东方红睿逸定期开放混合</t>
+          <t>东方红均衡优选两年定期开放混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>21.87</t>
+          <t>22.20</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.73</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
+          <t>23.80</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1887</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>10</v>
       </c>
     </row>
@@ -530,15 +550,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>86.42</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>4.89</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1242</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>4</v>
       </c>
     </row>
@@ -558,15 +588,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>8.24</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>30.56</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1.17</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0964</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>8</v>
       </c>
     </row>
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005055</t>
+          <t>001309</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华泰柏瑞量化阿尔法灵活配置混合A</t>
+          <t>东方红睿逸定期开放混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>94.40</t>
+          <t>12.19</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.54</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>7</v>
+          <t>21.87</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0890</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -604,25 +654,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>006532</t>
+          <t>005055</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华泰柏瑞量化阿尔法灵活配置混合C</t>
+          <t>华泰柏瑞量化阿尔法灵活配置混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>94.40</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1.54</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0548</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>7</v>
       </c>
     </row>
@@ -632,26 +692,34 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>169108</t>
+          <t>006532</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>东方红均衡优选两年定期开放混合</t>
+          <t>华泰柏瑞量化阿尔法灵活配置混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>23.80</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0.85</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>10</v>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -665,7 +733,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -686,15 +754,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -706,25 +784,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001312</t>
+          <t>673030</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华安新优选灵活配置混合A</t>
+          <t>西部利得多策略优选灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>23.84</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.89</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
+          <t>52.25</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0572</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>10</v>
       </c>
     </row>
@@ -734,25 +822,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>002144</t>
+          <t>001312</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华安新优选灵活配置混合C</t>
+          <t>华安新优选灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>23.84</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>0.89</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0361</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>10</v>
       </c>
     </row>
@@ -762,25 +860,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>673030</t>
+          <t>002144</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>西部利得多策略优选灵活配置混合</t>
+          <t>华安新优选灵活配置混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>52.25</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.18</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+          <t>23.84</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>10</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600011-华能国际.xlsx
+++ b/数据整理/stocks/A股/上证主板/600011-华能国际.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -895,4 +896,212 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009114</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏扬景泓回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1332</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001172</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华弘泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>28.53</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0504</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009115</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏扬景泓回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001381</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华弘泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>28.53</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600011-华能国际.xlsx
+++ b/数据整理/stocks/A股/上证主板/600011-华能国际.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1104,4 +1105,2720 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H71"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>012079</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>信达澳银新能源精选混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>48.60</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.2550</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008188</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源稳健增长三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>26.92</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3298</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002350</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安安华灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>40.83</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.26</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.1147</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006314</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中融策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>15.31</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7701</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>398001</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中海优质成长混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>16.97</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>81.25</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6924</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>288001</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏经典配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>17.73</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>64.21</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5284</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001178</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>前海开源再融资主题精选股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.86</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.85</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4483</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003857</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>前海开源周期优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>79.28</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4158</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011738</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华安兴安优选一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>26.36</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>49.82</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4139</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>519698</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>交银先锋混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>11.65</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>77.51</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3577</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>450004</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国富深化价值混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>14.50</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>82.61</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2914</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005671</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>新疆前海联合研究优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>82.62</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2273</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006100</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>平安优势产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>88.34</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1987</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006775</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>前海开源优质成长混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1922</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005552</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富兰克林国海新趋势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>13.04</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>23.53</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1878</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001127</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中银宏观策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>74.45</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1789</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>161611</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>融通内需驱动混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>63.22</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1785</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011287</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>前海开源聚慧三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.39</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1673</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011739</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华安兴安优选一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>10.52</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>49.82</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1652</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>006101</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>平安优势产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>88.34</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1519</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011390</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华安添祥6个月持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>16.43</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>29.05</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1512</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002537</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>平安安盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>82.96</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1314</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001825</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>建信中国制造2025股票</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1278</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009347</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中融价值成长6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1252</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>006315</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中融策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1202</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>006216</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>前海开源价值成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1136</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>510160</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>南方中证南方小康产业ETF</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>99.20</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1099</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011132</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>鹏扬沪深300质量成长低波动指数证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1095</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>003858</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>前海开源周期优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>79.28</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0841</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>002407</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>前海开源恒远灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>83.47</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0719</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>003145</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中融竞争优势股票</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0700</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001276</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>建信新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0691</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>001678</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>英大国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0671</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>004975</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>交银施罗德恒益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>9.48</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>20.69</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0654</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>519766</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>交银施罗德荣鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>10.18</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>20.08</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0652</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>002252</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>融通成长30灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>54.00</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0628</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>000739</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>平安新鑫先锋混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>75.63</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0593</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010916</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>交银施罗德臻选回报混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>9.02</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>21.86</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0586</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>003900</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>交银施罗德瑞鑫定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>8.59</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>20.57</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0541</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>006123</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>中融高股息精选混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0513</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>005553</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>富兰克林国海新趋势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>23.53</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0507</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>011133</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>鹏扬沪深300质量成长低波动指数证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0492</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>121010</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞源灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>65.60</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0482</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>011807</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>平安研究精选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>75.66</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0473</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>000916</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>前海开源股息率100强等权重股票</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0440</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>006217</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>前海开源价值成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0432</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>000368</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>汇添富沪深300安中指数</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0422</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>003842</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>中邮景泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>26.38</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0416</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>161222</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞利灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>69.32</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0323</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>001515</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>平安新鑫先锋混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>75.63</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>006124</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>中融高股息精选混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>002137</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>诺安利鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>80.43</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>000120</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>中银美丽中国混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>75.91</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>008869</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>大成恒享混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>21.57</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>011808</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>平安研究精选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>75.66</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>005545</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>中银改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>74.30</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>004549</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>富安达消费主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>90.85</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>510190</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>华安上证龙头ETF</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>96.82</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>000591</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>中银健康生活混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>75.14</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>009348</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>中融价值成长6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>003843</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>中邮景泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>26.38</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>001252</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>中海进取收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>77.88</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>005569</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>中融智选红利股票A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>005672</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>新疆前海联合研究优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>82.62</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>000788</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>前海开源中国成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>009486</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>光大保德信瑞和混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>90.19</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>163821</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>中银沪深300等权重指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>009487</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>光大保德信瑞和混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>90.19</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>008870</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>大成恒享混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>21.57</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>005570</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>中融智选红利股票C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600011-华能国际.xlsx
+++ b/数据整理/stocks/A股/上证主板/600011-华能国际.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3821,4 +3822,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>70</v>
+      </c>
+      <c r="D2" t="n">
+        <v>12.7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600011-华能国际.xlsx
+++ b/数据整理/stocks/A股/上证主板/600011-华能国际.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3830,7 +3831,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3841,17 +3842,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3861,14 +3882,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>70</v>
-      </c>
-      <c r="D2" t="n">
-        <v>12.7</v>
+          <t>163402</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全趋势投资混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>298.80</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.64</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>11.7727</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -3877,14 +3920,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.21</v>
+          <t>009887</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发稳健优选六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>149.06</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>64.82</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6.1860</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -3893,14 +3958,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.11</v>
+          <t>000689</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>142.62</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>5.4909</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -3909,13 +3996,2657 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>163412</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>兴全轻资产混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>87.51</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.6842</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011932</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>工银瑞信战略远见混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>67.11</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.9931</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519002</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华安安信消费混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>72.61</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>74.50</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.1565</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010379</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发均衡优选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>70.75</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>64.97</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.0376</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008297</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发价值优势混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>36.57</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.9419</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008949</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>平安匠心优选混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>53.45</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>83.32</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.4966</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000991</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>工银瑞信战略转型主题股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>48.06</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.3745</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011194</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发睿铭两年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>22.22</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>74.72</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.1799</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>270022</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发内需增长混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>17.91</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>79.54</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.9564</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>398001</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中海优质成长混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>24.84</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.59</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.8967</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005630</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华安研究精选混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>13.15</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>87.98</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.7614</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011134</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>广发价值优选混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>13.75</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.7342</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010201</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>农银汇理智增一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>11.06</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>88.39</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.6901</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009888</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>广发稳健优选六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>15.07</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>64.82</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.6254</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011336</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>兴全汇吉一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>50.91</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>41.44</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.6058</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001445</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华安国企改革主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>17.77</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>82.82</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.5438</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>002537</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>平安安盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>19.38</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>86.38</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.4961</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011195</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>广发睿铭两年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>8.99</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>74.72</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.4774</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>660001</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>农银行业成长混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>19.98</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>85.50</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.4116</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>160133</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>南方天元新产业股票(LOF)</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>18.22</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>87.42</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3808</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>519997</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>长信银利精选混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>78.92</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.3358</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>202007</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>南方隆元产业主题混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>13.80</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>81.11</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2774</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>161232</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞盛灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2233</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>900008</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中信证券稳健回报混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>55.26</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2227</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>481006</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>工银红利混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>87.32</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2211</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>000663</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>国投瑞银美丽中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2187</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>001143</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华商量化进取灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>85.74</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2165</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010994</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>博时创新经济混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>79.19</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2011</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001239</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>长盛国企改革主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>85.92</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1997</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>000763</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>工银新财富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>91.63</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1940</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>011933</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>工银瑞信战略远见混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1855</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>630011</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华商主题精选混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1705</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>217012</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>招商行业领先混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1646</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>001396</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>建信互联网+产业升级股票</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>90.92</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1518</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>000612</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华宝生态中国混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>86.83</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1464</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>660004</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>农银策略价值混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>84.22</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1409</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>630005</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华商动态阿尔法混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>70.47</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1301</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>010380</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>广发均衡优选混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>64.97</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1282</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>011135</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>广发价值优选混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1063</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>001656</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>农银汇理中国优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1053</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>000609</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>华商新量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>85.98</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1013</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>660003</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>农银平衡双利混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>77.55</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0970</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>000955</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>南方产业活力股票</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>82.69</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0922</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>010293</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>华商量化优质精选混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>85.40</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0882</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>161225</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞盈灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>89.37</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0857</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>000279</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>华商红利优选混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>67.54</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0759</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>900078</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>中信证券稳健回报混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>55.26</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0590</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>000916</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>前海开源股息率100强等权重股票</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>91.54</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0513</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>010124</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>兴银景气优选混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0456</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>008950</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>平安匠心优选混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>83.32</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0454</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>002179</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>华安事件驱动量化策略混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0401</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>007590</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>华宝绿色领先股票</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>85.84</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0346</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>000994</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>建信睿盈灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0331</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>011473</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>工银瑞信战略转型主题股票C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0323</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>011337</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>兴全汇吉一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>41.44</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0284</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>006225</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>人保量化基本面混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>89.83</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0241</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>010995</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>博时创新经济混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>79.19</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>970048</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>东海证券海睿致远灵活配置混合型集合资产管理计划</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>59.97</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>000995</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>建信睿盈灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>011183</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>广发内需增长混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>79.54</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>001252</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>中海进取收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>162211</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>泰达宏利品质生活混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>79.27</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>000788</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>前海开源中国成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>510190</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>华安上证龙头ETF</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>97.51</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>010125</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>兴银景气优选混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>006226</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>人保量化基本面混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>89.83</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>960019</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>招商行业领先混合H</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G71" t="n">
+        <v>0</v>
+      </c>
+      <c r="H71" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>70</v>
+      </c>
+      <c r="D2" t="n">
+        <v>52.67</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>70</v>
+      </c>
+      <c r="D3" t="n">
+        <v>12.7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>6</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.55</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600011-华能国际.xlsx
+++ b/数据整理/stocks/A股/上证主板/600011-华能国际.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6545,7 +6546,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6556,17 +6557,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -6576,14 +6597,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>70</v>
-      </c>
-      <c r="D2" t="n">
-        <v>52.67</v>
+          <t>163402</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全趋势投资混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>298.80</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.10</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>14.1930</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -6592,14 +6635,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>70</v>
-      </c>
-      <c r="D3" t="n">
-        <v>12.7</v>
+          <t>010379</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发均衡优选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>55.11</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>64.69</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.8988</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -6608,14 +6673,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.21</v>
+          <t>163412</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴全轻资产混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>69.20</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>95.26</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.6296</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -6624,14 +6711,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.11</v>
+          <t>000209</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>信诚新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>70.75</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.08</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.3772</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -6640,13 +6749,1837 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>519002</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华安安信消费混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>80.30</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.00</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.7505</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009887</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发稳健优选六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>30.91</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>64.69</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.6630</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008297</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发价值优势混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>28.25</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.5312</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>270022</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发内需增长混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>15.92</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>79.56</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.1606</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011194</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发睿铭两年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>20.55</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>74.56</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.1590</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009951</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发稳健回报混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>70.64</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>43.16</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.9395</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>398001</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中海优质成长混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>14.42</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.86</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.8695</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009888</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发稳健优选六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>11.86</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>64.69</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.6381</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>159611</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发中证全指电力ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>13.38</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>99.14</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.6275</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009857</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>博时价值臻选两年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>10.81</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.04</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.5102</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>000612</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华宝生态中国混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.21</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4567</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001118</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华宝事件驱动混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.73</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4334</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011195</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>广发睿铭两年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>74.56</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4303</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>160133</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>南方天元新产业股票(LOF)</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>18.22</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>80.36</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3753</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011134</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>广发价值优选混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3499</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>202007</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>南方隆元产业主题混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>11.43</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>72.74</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2183</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010994</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>博时创新经济混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1906</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010380</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>广发均衡优选混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>64.69</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1836</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>550003</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中信保诚盛世蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>88.54</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1712</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>161232</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞盛灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1592</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009952</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>广发稳健回报混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>11.53</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>43.16</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1533</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011550</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>湘财创新成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1174</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001088</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华宝国策导向混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>85.75</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1107</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>161225</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞盈灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0962</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>000955</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>南方产业活力股票</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>80.56</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0885</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>519198</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>万家颐和灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>91.03</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0865</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>165512</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>信诚新机遇混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>89.17</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0860</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011135</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>广发价值优选混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0815</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>000567</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>广发聚祥灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>73.70</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0531</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>009189</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华宝成长策略混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>83.71</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0517</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>009858</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>博时价值臻选两年持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>89.04</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0340</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>002634</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华宝未来主导产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>91.58</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>005492</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>农银汇理研究驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>62.76</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010995</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>博时创新经济混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>010076</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>湘财长弘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>91.72</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>002135</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>广发鑫源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>26.98</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>001734</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>广发百发大数据策略成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>85.72</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>001735</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>广发百发大数据策略成长灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>85.72</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>001252</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>中海进取收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>011551</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>湘财创新成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>011183</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>广发内需增长混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>79.56</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>011149</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>创金合信ESG责任投资股票A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>87.53</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>010077</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>湘财长弘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>91.72</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>011150</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>创金合信ESG责任投资股票C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>87.53</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>002136</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>广发鑫源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>26.98</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>49</v>
+      </c>
+      <c r="D2" t="n">
+        <v>37.03</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>70</v>
+      </c>
+      <c r="D3" t="n">
+        <v>52.67</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>70</v>
+      </c>
+      <c r="D4" t="n">
+        <v>12.7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>6</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.55</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600011-华能国际.xlsx
+++ b/数据整理/stocks/A股/上证主板/600011-华能国际.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -8462,7 +8463,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8473,17 +8474,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -8493,14 +8514,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>49</v>
-      </c>
-      <c r="D2" t="n">
-        <v>37.03</v>
+          <t>010379</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发均衡优选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>58.35</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>65.97</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.9525</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -8509,14 +8552,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>70</v>
-      </c>
-      <c r="D3" t="n">
-        <v>52.67</v>
+          <t>008297</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发价值优势混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>29.23</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.6807</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -8525,14 +8590,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>70</v>
-      </c>
-      <c r="D4" t="n">
-        <v>12.7</v>
+          <t>009887</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发稳健优选六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>19.97</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>65.96</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0464</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -8541,14 +8628,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.21</v>
+          <t>270022</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发内需增长混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>13.06</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>79.82</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0409</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -8557,14 +8666,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>3</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.11</v>
+          <t>519732</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>交银定期支付双息平衡混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>42.91</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>64.07</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9612</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -8573,13 +8704,1247 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>009951</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发稳健回报混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>58.47</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>46.28</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.9180</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011194</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发睿铭两年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>13.67</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>75.16</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7423</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009888</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发稳健优选六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>12.40</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>65.96</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6498</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009857</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博时价值臻选两年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>10.14</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6490</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>161706</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>招商优质成长混合 (LOF)</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>17.86</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.6340</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>159611</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发中证全指电力ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>12.29</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>99.39</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5764</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011195</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发睿铭两年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>75.16</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4382</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000612</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华宝生态中国混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4020</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001118</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华宝事件驱动混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3797</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011134</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>广发价值优选混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>95.15</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3566</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010994</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>博时创新经济混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>64.81</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1945</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010380</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>广发均衡优选混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>65.97</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1847</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009952</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>广发稳健回报混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>11.05</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>46.28</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1735</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>003401</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>工银瑞信可转债债券</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>50.77</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1343</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010043</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>天弘安康颐和混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>19.05</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>22.49</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1219</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>008261</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>招商研究优选股票A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0914</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005945</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>工银瑞信可转债优选债券A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>50.81</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0884</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011135</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>广发价值优选混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>95.15</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0820</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>159625</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>嘉实国证绿色电力ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>98.77</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0745</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009858</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>博时价值臻选两年持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0461</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>519197</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>万家颐达灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>29.56</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0352</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>008262</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>招商研究优选股票C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>002639</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>天弘价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>20.33</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011183</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>广发内需增长混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>79.82</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010044</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>天弘安康颐和混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>22.49</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010995</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>博时创新经济混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>64.81</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>005946</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>工银瑞信可转债优选债券C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>50.81</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>005607</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华宝中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>005608</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华宝中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>34</v>
+      </c>
+      <c r="D2" t="n">
+        <v>14.78</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>49</v>
+      </c>
+      <c r="D3" t="n">
+        <v>37.03</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>70</v>
+      </c>
+      <c r="D4" t="n">
+        <v>52.67</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>70</v>
+      </c>
+      <c r="D5" t="n">
+        <v>12.7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>6</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.55</v>
       </c>
     </row>
